--- a/tools/easy-poi/src/main/resources/doc/dynamic_header_and_data_template.xlsx
+++ b/tools/easy-poi/src/main/resources/doc/dynamic_header_and_data_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My\dev\Ateng-Java\tools\easy-poi\src\main\resources\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sources\my\Ateng-Java\tools\easy-poi\src\main\resources\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39B2198-388D-4F48-A14A-718457938665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AB1E38-DB76-4242-A960-E997341603AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9810" yWindow="1560" windowWidth="24090" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>{{#fe: colList t.name}}</t>
+    <t>{{#fe:titles t.name}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{{v_fe: colList t.data}}</t>
+    <t>{{v_fe:titles t.val}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{$fe:data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -105,12 +109,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -393,25 +400,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:B3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:2" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
